--- a/docs/Список элементов.xlsx
+++ b/docs/Список элементов.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="16275" windowHeight="6720"/>
@@ -716,7 +716,7 @@
   <dimension ref="B2:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="22" spans="2:12">
       <c r="B22">
-        <f t="shared" ref="B22:B47" si="2">B21+1</f>
+        <f t="shared" ref="B22:B46" si="2">B21+1</f>
         <v>20</v>
       </c>
       <c r="C22" t="s">
